--- a/endpoints/kettle/admin/quantitative_data/resources/origin/MM172.xlsx
+++ b/endpoints/kettle/admin/quantitative_data/resources/origin/MM172.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ComEuropea\OSHA\OSHD15 - ESENER migration\03 - Data\Datos definitivos\ESENER 1\20150728_tables_drivers&amp;barriers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\biserver-ce\pentaho-solutions\system\osha-dvt-esener\endpoints\kettle\admin\quantitative_data\resources\origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9720" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9120" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MM172.1" sheetId="1" r:id="rId1"/>
@@ -178,22 +178,22 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>MM172.1</t>
+    <t>MM172_1</t>
   </si>
   <si>
-    <t>MM172.2</t>
+    <t>MM172_2</t>
   </si>
   <si>
-    <t>MM172.4</t>
+    <t>MM172_3</t>
   </si>
   <si>
-    <t>MM172.6</t>
+    <t>MM172_4</t>
   </si>
   <si>
-    <t>MM172.3</t>
+    <t>MM172_5</t>
   </si>
   <si>
-    <t>MM172.5</t>
+    <t>MM172_6</t>
   </si>
 </sst>
 </file>
@@ -806,21 +806,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -842,21 +827,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -868,21 +838,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -896,21 +851,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -922,21 +862,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -962,6 +887,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -976,18 +988,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1277,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A129"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,18 +1289,18 @@
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="92"/>
       <c r="C1" s="93"/>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99" t="s">
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="131"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="94" t="s">
@@ -1338,7 +1338,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="96" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -1373,7 +1373,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
@@ -1408,7 +1408,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
@@ -1443,7 +1443,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
@@ -1478,7 +1478,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -1513,7 +1513,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -1583,7 +1583,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1618,7 +1618,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="97" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
@@ -1653,7 +1653,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
@@ -1688,7 +1688,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="97" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
@@ -1723,7 +1723,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="97" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
@@ -1758,7 +1758,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
@@ -1828,7 +1828,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
@@ -1863,7 +1863,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
@@ -1898,7 +1898,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
@@ -1933,7 +1933,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
@@ -1968,7 +1968,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
@@ -2003,7 +2003,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2038,7 +2038,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2073,7 +2073,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
@@ -2143,7 +2143,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
@@ -2178,7 +2178,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B27" t="s">
@@ -2213,7 +2213,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
@@ -2248,7 +2248,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="102" t="s">
+      <c r="A29" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B29" t="s">
@@ -2283,7 +2283,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="102" t="s">
+      <c r="A30" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B30" t="s">
@@ -2318,7 +2318,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B31" t="s">
@@ -2353,7 +2353,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B32" t="s">
@@ -2388,7 +2388,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B33" t="s">
@@ -2423,7 +2423,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B34" t="s">
@@ -2458,7 +2458,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B35" t="s">
@@ -2493,7 +2493,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B36" t="s">
@@ -2528,7 +2528,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
@@ -2563,7 +2563,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="102" t="s">
+      <c r="A38" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B38" t="s">
@@ -2598,7 +2598,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B39" t="s">
@@ -2633,7 +2633,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B40" t="s">
@@ -2668,7 +2668,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="102" t="s">
+      <c r="A41" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B41" t="s">
@@ -2703,7 +2703,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B42" t="s">
@@ -2738,7 +2738,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="102" t="s">
+      <c r="A43" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B43" t="s">
@@ -2773,7 +2773,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="102" t="s">
+      <c r="A44" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B44" t="s">
@@ -2808,7 +2808,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B45" t="s">
@@ -2843,7 +2843,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="102" t="s">
+      <c r="A46" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B46" t="s">
@@ -2878,7 +2878,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="102" t="s">
+      <c r="A47" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B47" t="s">
@@ -2913,7 +2913,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="102" t="s">
+      <c r="A48" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B48" t="s">
@@ -2948,7 +2948,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="102" t="s">
+      <c r="A49" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B49" t="s">
@@ -2983,7 +2983,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="102" t="s">
+      <c r="A50" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B50" t="s">
@@ -3018,7 +3018,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="102" t="s">
+      <c r="A51" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B51" t="s">
@@ -3053,7 +3053,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="102" t="s">
+      <c r="A52" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B52" t="s">
@@ -3088,7 +3088,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="102" t="s">
+      <c r="A53" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B53" t="s">
@@ -3123,7 +3123,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="102" t="s">
+      <c r="A54" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B54" t="s">
@@ -3158,7 +3158,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="102" t="s">
+      <c r="A55" s="97" t="s">
         <v>30</v>
       </c>
       <c r="B55" t="s">
@@ -3193,7 +3193,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="102" t="s">
+      <c r="A56" s="97" t="s">
         <v>30</v>
       </c>
       <c r="B56" t="s">
@@ -3228,7 +3228,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="102" t="s">
+      <c r="A57" s="97" t="s">
         <v>30</v>
       </c>
       <c r="B57" t="s">
@@ -3263,7 +3263,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="102" t="s">
+      <c r="A58" s="97" t="s">
         <v>30</v>
       </c>
       <c r="B58" t="s">
@@ -3298,7 +3298,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="102" t="s">
+      <c r="A59" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B59" t="s">
@@ -3333,7 +3333,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="102" t="s">
+      <c r="A60" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B60" t="s">
@@ -3368,7 +3368,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="102" t="s">
+      <c r="A61" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B61" t="s">
@@ -3403,7 +3403,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="102" t="s">
+      <c r="A62" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B62" t="s">
@@ -3438,7 +3438,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="102" t="s">
+      <c r="A63" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B63" t="s">
@@ -3473,7 +3473,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="102" t="s">
+      <c r="A64" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B64" t="s">
@@ -3508,7 +3508,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="102" t="s">
+      <c r="A65" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B65" t="s">
@@ -3543,7 +3543,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="102" t="s">
+      <c r="A66" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B66" t="s">
@@ -3578,7 +3578,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="102" t="s">
+      <c r="A67" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B67" t="s">
@@ -3613,7 +3613,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="102" t="s">
+      <c r="A68" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B68" t="s">
@@ -3648,7 +3648,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="102" t="s">
+      <c r="A69" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B69" t="s">
@@ -3683,7 +3683,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="102" t="s">
+      <c r="A70" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B70" t="s">
@@ -3718,7 +3718,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="102" t="s">
+      <c r="A71" s="97" t="s">
         <v>34</v>
       </c>
       <c r="B71" t="s">
@@ -3753,7 +3753,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="102" t="s">
+      <c r="A72" s="97" t="s">
         <v>34</v>
       </c>
       <c r="B72" t="s">
@@ -3788,7 +3788,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="102" t="s">
+      <c r="A73" s="97" t="s">
         <v>34</v>
       </c>
       <c r="B73" t="s">
@@ -3823,7 +3823,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="102" t="s">
+      <c r="A74" s="97" t="s">
         <v>35</v>
       </c>
       <c r="B74" t="s">
@@ -3858,7 +3858,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="102" t="s">
+      <c r="A75" s="97" t="s">
         <v>35</v>
       </c>
       <c r="B75" t="s">
@@ -3893,7 +3893,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="102" t="s">
+      <c r="A76" s="97" t="s">
         <v>35</v>
       </c>
       <c r="B76" t="s">
@@ -3928,7 +3928,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="102" t="s">
+      <c r="A77" s="97" t="s">
         <v>35</v>
       </c>
       <c r="B77" t="s">
@@ -3963,7 +3963,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="102" t="s">
+      <c r="A78" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B78" t="s">
@@ -3998,7 +3998,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="102" t="s">
+      <c r="A79" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B79" t="s">
@@ -4033,7 +4033,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="102" t="s">
+      <c r="A80" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B80" t="s">
@@ -4068,7 +4068,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="102" t="s">
+      <c r="A81" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B81" t="s">
@@ -4103,7 +4103,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="102" t="s">
+      <c r="A82" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B82" t="s">
@@ -4138,7 +4138,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="102" t="s">
+      <c r="A83" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B83" t="s">
@@ -4173,7 +4173,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="102" t="s">
+      <c r="A84" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B84" t="s">
@@ -4208,7 +4208,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="102" t="s">
+      <c r="A85" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B85" t="s">
@@ -4243,7 +4243,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="102" t="s">
+      <c r="A86" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B86" t="s">
@@ -4278,7 +4278,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="102" t="s">
+      <c r="A87" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B87" t="s">
@@ -4313,7 +4313,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="102" t="s">
+      <c r="A88" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B88" t="s">
@@ -4348,7 +4348,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="102" t="s">
+      <c r="A89" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B89" t="s">
@@ -4383,7 +4383,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="102" t="s">
+      <c r="A90" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B90" t="s">
@@ -4418,7 +4418,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="102" t="s">
+      <c r="A91" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B91" t="s">
@@ -4453,7 +4453,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="102" t="s">
+      <c r="A92" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B92" t="s">
@@ -4488,7 +4488,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="102" t="s">
+      <c r="A93" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B93" t="s">
@@ -4523,7 +4523,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="102" t="s">
+      <c r="A94" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B94" t="s">
@@ -4558,7 +4558,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="102" t="s">
+      <c r="A95" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B95" t="s">
@@ -4593,7 +4593,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="102" t="s">
+      <c r="A96" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B96" t="s">
@@ -4628,7 +4628,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="102" t="s">
+      <c r="A97" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B97" t="s">
@@ -4663,7 +4663,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="102" t="s">
+      <c r="A98" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B98" t="s">
@@ -4698,7 +4698,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="102" t="s">
+      <c r="A99" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B99" t="s">
@@ -4733,7 +4733,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="102" t="s">
+      <c r="A100" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B100" t="s">
@@ -4768,7 +4768,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="102" t="s">
+      <c r="A101" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B101" t="s">
@@ -4803,7 +4803,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="102" t="s">
+      <c r="A102" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B102" t="s">
@@ -4838,7 +4838,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="102" t="s">
+      <c r="A103" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B103" t="s">
@@ -4873,7 +4873,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="102" t="s">
+      <c r="A104" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B104" t="s">
@@ -4908,7 +4908,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="102" t="s">
+      <c r="A105" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B105" t="s">
@@ -4943,7 +4943,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="102" t="s">
+      <c r="A106" s="97" t="s">
         <v>43</v>
       </c>
       <c r="B106" t="s">
@@ -4978,7 +4978,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="102" t="s">
+      <c r="A107" s="97" t="s">
         <v>43</v>
       </c>
       <c r="B107" t="s">
@@ -5013,7 +5013,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="102" t="s">
+      <c r="A108" s="97" t="s">
         <v>43</v>
       </c>
       <c r="B108" t="s">
@@ -5048,7 +5048,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="102" t="s">
+      <c r="A109" s="97" t="s">
         <v>43</v>
       </c>
       <c r="B109" t="s">
@@ -5083,7 +5083,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="102" t="s">
+      <c r="A110" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B110" t="s">
@@ -5118,7 +5118,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="102" t="s">
+      <c r="A111" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B111" t="s">
@@ -5153,7 +5153,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="102" t="s">
+      <c r="A112" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B112" t="s">
@@ -5188,7 +5188,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="102" t="s">
+      <c r="A113" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B113" t="s">
@@ -5223,7 +5223,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="102" t="s">
+      <c r="A114" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B114" t="s">
@@ -5258,7 +5258,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="102" t="s">
+      <c r="A115" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B115" t="s">
@@ -5293,7 +5293,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="102" t="s">
+      <c r="A116" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B116" t="s">
@@ -5328,7 +5328,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="102" t="s">
+      <c r="A117" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B117" t="s">
@@ -5363,7 +5363,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="102" t="s">
+      <c r="A118" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B118" t="s">
@@ -5398,7 +5398,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="102" t="s">
+      <c r="A119" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B119" t="s">
@@ -5433,7 +5433,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="102" t="s">
+      <c r="A120" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B120" t="s">
@@ -5468,7 +5468,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="102" t="s">
+      <c r="A121" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B121" t="s">
@@ -5503,7 +5503,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="102" t="s">
+      <c r="A122" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B122" t="s">
@@ -5538,7 +5538,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="102" t="s">
+      <c r="A123" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B123" t="s">
@@ -5573,7 +5573,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="102" t="s">
+      <c r="A124" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B124" t="s">
@@ -5608,7 +5608,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="102" t="s">
+      <c r="A125" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B125" t="s">
@@ -5643,7 +5643,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="102" t="s">
+      <c r="A126" s="97" t="s">
         <v>48</v>
       </c>
       <c r="B126" t="s">
@@ -5678,7 +5678,7 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="102" t="s">
+      <c r="A127" s="97" t="s">
         <v>48</v>
       </c>
       <c r="B127" t="s">
@@ -5713,7 +5713,7 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="102" t="s">
+      <c r="A128" s="97" t="s">
         <v>48</v>
       </c>
       <c r="B128" t="s">
@@ -5748,7 +5748,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="103" t="s">
+      <c r="A129" s="98" t="s">
         <v>48</v>
       </c>
       <c r="B129" t="s">
@@ -5797,8 +5797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A129"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5807,29 +5807,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="108" t="s">
+      <c r="A1" s="99"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111" t="s">
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="112"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="136"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="101" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="102" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="80" t="s">
@@ -5858,7 +5858,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="96" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -5893,7 +5893,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
@@ -5928,7 +5928,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
@@ -5963,7 +5963,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
@@ -5998,7 +5998,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -6033,7 +6033,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
@@ -6068,7 +6068,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -6103,7 +6103,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -6138,7 +6138,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="97" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
@@ -6173,7 +6173,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
@@ -6208,7 +6208,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="97" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
@@ -6243,7 +6243,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="97" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
@@ -6278,7 +6278,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
@@ -6313,7 +6313,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
@@ -6348,7 +6348,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
@@ -6383,7 +6383,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
@@ -6418,7 +6418,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
@@ -6453,7 +6453,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
@@ -6488,7 +6488,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
@@ -6523,7 +6523,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -6558,7 +6558,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -6593,7 +6593,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -6628,7 +6628,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
@@ -6663,7 +6663,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
@@ -6698,7 +6698,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B27" t="s">
@@ -6733,7 +6733,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
@@ -6768,7 +6768,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="102" t="s">
+      <c r="A29" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B29" t="s">
@@ -6803,7 +6803,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="102" t="s">
+      <c r="A30" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B30" t="s">
@@ -6838,7 +6838,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B31" t="s">
@@ -6873,7 +6873,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B32" t="s">
@@ -6908,7 +6908,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B33" t="s">
@@ -6943,7 +6943,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B34" t="s">
@@ -6978,7 +6978,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B35" t="s">
@@ -7013,7 +7013,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B36" t="s">
@@ -7048,7 +7048,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
@@ -7083,7 +7083,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="102" t="s">
+      <c r="A38" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B38" t="s">
@@ -7118,7 +7118,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B39" t="s">
@@ -7153,7 +7153,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B40" t="s">
@@ -7188,7 +7188,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="102" t="s">
+      <c r="A41" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B41" t="s">
@@ -7223,7 +7223,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B42" t="s">
@@ -7258,7 +7258,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="102" t="s">
+      <c r="A43" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B43" t="s">
@@ -7293,7 +7293,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="102" t="s">
+      <c r="A44" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B44" t="s">
@@ -7328,7 +7328,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B45" t="s">
@@ -7363,7 +7363,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="102" t="s">
+      <c r="A46" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B46" t="s">
@@ -7398,7 +7398,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="102" t="s">
+      <c r="A47" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B47" t="s">
@@ -7433,7 +7433,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="102" t="s">
+      <c r="A48" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B48" t="s">
@@ -7468,7 +7468,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="102" t="s">
+      <c r="A49" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B49" t="s">
@@ -7503,7 +7503,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="102" t="s">
+      <c r="A50" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B50" t="s">
@@ -7538,7 +7538,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="102" t="s">
+      <c r="A51" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B51" t="s">
@@ -7573,7 +7573,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="102" t="s">
+      <c r="A52" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B52" t="s">
@@ -7608,7 +7608,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="102" t="s">
+      <c r="A53" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B53" t="s">
@@ -7643,7 +7643,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="102" t="s">
+      <c r="A54" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B54" t="s">
@@ -7678,7 +7678,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="102" t="s">
+      <c r="A55" s="97" t="s">
         <v>30</v>
       </c>
       <c r="B55" t="s">
@@ -7713,7 +7713,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="102" t="s">
+      <c r="A56" s="97" t="s">
         <v>30</v>
       </c>
       <c r="B56" t="s">
@@ -7748,7 +7748,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="102" t="s">
+      <c r="A57" s="97" t="s">
         <v>30</v>
       </c>
       <c r="B57" t="s">
@@ -7783,7 +7783,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="102" t="s">
+      <c r="A58" s="97" t="s">
         <v>30</v>
       </c>
       <c r="B58" t="s">
@@ -7818,7 +7818,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="102" t="s">
+      <c r="A59" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B59" t="s">
@@ -7853,7 +7853,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="102" t="s">
+      <c r="A60" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B60" t="s">
@@ -7888,7 +7888,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="102" t="s">
+      <c r="A61" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B61" t="s">
@@ -7923,7 +7923,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="102" t="s">
+      <c r="A62" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B62" t="s">
@@ -7958,7 +7958,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="102" t="s">
+      <c r="A63" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B63" t="s">
@@ -7993,7 +7993,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="102" t="s">
+      <c r="A64" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B64" t="s">
@@ -8028,7 +8028,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="102" t="s">
+      <c r="A65" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B65" t="s">
@@ -8063,7 +8063,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="102" t="s">
+      <c r="A66" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B66" t="s">
@@ -8098,7 +8098,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="102" t="s">
+      <c r="A67" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B67" t="s">
@@ -8133,7 +8133,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="102" t="s">
+      <c r="A68" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B68" t="s">
@@ -8168,7 +8168,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="102" t="s">
+      <c r="A69" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B69" t="s">
@@ -8203,7 +8203,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="102" t="s">
+      <c r="A70" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B70" t="s">
@@ -8238,7 +8238,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="102" t="s">
+      <c r="A71" s="97" t="s">
         <v>34</v>
       </c>
       <c r="B71" t="s">
@@ -8273,7 +8273,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="102" t="s">
+      <c r="A72" s="97" t="s">
         <v>34</v>
       </c>
       <c r="B72" t="s">
@@ -8308,7 +8308,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="102" t="s">
+      <c r="A73" s="97" t="s">
         <v>34</v>
       </c>
       <c r="B73" t="s">
@@ -8343,7 +8343,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="102" t="s">
+      <c r="A74" s="97" t="s">
         <v>35</v>
       </c>
       <c r="B74" t="s">
@@ -8378,7 +8378,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="102" t="s">
+      <c r="A75" s="97" t="s">
         <v>35</v>
       </c>
       <c r="B75" t="s">
@@ -8413,7 +8413,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="102" t="s">
+      <c r="A76" s="97" t="s">
         <v>35</v>
       </c>
       <c r="B76" t="s">
@@ -8448,7 +8448,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="102" t="s">
+      <c r="A77" s="97" t="s">
         <v>35</v>
       </c>
       <c r="B77" t="s">
@@ -8483,7 +8483,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="102" t="s">
+      <c r="A78" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B78" t="s">
@@ -8518,7 +8518,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="102" t="s">
+      <c r="A79" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B79" t="s">
@@ -8553,7 +8553,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="102" t="s">
+      <c r="A80" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B80" t="s">
@@ -8588,7 +8588,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="102" t="s">
+      <c r="A81" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B81" t="s">
@@ -8623,7 +8623,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="102" t="s">
+      <c r="A82" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B82" t="s">
@@ -8658,7 +8658,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="102" t="s">
+      <c r="A83" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B83" t="s">
@@ -8693,7 +8693,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="102" t="s">
+      <c r="A84" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B84" t="s">
@@ -8728,7 +8728,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="102" t="s">
+      <c r="A85" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B85" t="s">
@@ -8763,7 +8763,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="102" t="s">
+      <c r="A86" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B86" t="s">
@@ -8798,7 +8798,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="102" t="s">
+      <c r="A87" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B87" t="s">
@@ -8833,7 +8833,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="102" t="s">
+      <c r="A88" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B88" t="s">
@@ -8868,7 +8868,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="102" t="s">
+      <c r="A89" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B89" t="s">
@@ -8903,7 +8903,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="102" t="s">
+      <c r="A90" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B90" t="s">
@@ -8938,7 +8938,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="102" t="s">
+      <c r="A91" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B91" t="s">
@@ -8973,7 +8973,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="102" t="s">
+      <c r="A92" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B92" t="s">
@@ -9008,7 +9008,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="102" t="s">
+      <c r="A93" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B93" t="s">
@@ -9043,7 +9043,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="102" t="s">
+      <c r="A94" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B94" t="s">
@@ -9078,7 +9078,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="102" t="s">
+      <c r="A95" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B95" t="s">
@@ -9113,7 +9113,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="102" t="s">
+      <c r="A96" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B96" t="s">
@@ -9148,7 +9148,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="102" t="s">
+      <c r="A97" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B97" t="s">
@@ -9183,7 +9183,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="102" t="s">
+      <c r="A98" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B98" t="s">
@@ -9218,7 +9218,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="102" t="s">
+      <c r="A99" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B99" t="s">
@@ -9253,7 +9253,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="102" t="s">
+      <c r="A100" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B100" t="s">
@@ -9288,7 +9288,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="102" t="s">
+      <c r="A101" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B101" t="s">
@@ -9323,7 +9323,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="102" t="s">
+      <c r="A102" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B102" t="s">
@@ -9358,7 +9358,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="102" t="s">
+      <c r="A103" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B103" t="s">
@@ -9393,7 +9393,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="102" t="s">
+      <c r="A104" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B104" t="s">
@@ -9428,7 +9428,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="102" t="s">
+      <c r="A105" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B105" t="s">
@@ -9463,7 +9463,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="102" t="s">
+      <c r="A106" s="97" t="s">
         <v>43</v>
       </c>
       <c r="B106" t="s">
@@ -9498,7 +9498,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="102" t="s">
+      <c r="A107" s="97" t="s">
         <v>43</v>
       </c>
       <c r="B107" t="s">
@@ -9533,7 +9533,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="102" t="s">
+      <c r="A108" s="97" t="s">
         <v>43</v>
       </c>
       <c r="B108" t="s">
@@ -9568,7 +9568,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="102" t="s">
+      <c r="A109" s="97" t="s">
         <v>43</v>
       </c>
       <c r="B109" t="s">
@@ -9603,7 +9603,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="102" t="s">
+      <c r="A110" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B110" t="s">
@@ -9638,7 +9638,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="102" t="s">
+      <c r="A111" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B111" t="s">
@@ -9673,7 +9673,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="102" t="s">
+      <c r="A112" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B112" t="s">
@@ -9708,7 +9708,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="102" t="s">
+      <c r="A113" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B113" t="s">
@@ -9743,7 +9743,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="102" t="s">
+      <c r="A114" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B114" t="s">
@@ -9778,7 +9778,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="102" t="s">
+      <c r="A115" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B115" t="s">
@@ -9813,7 +9813,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="102" t="s">
+      <c r="A116" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B116" t="s">
@@ -9848,7 +9848,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="102" t="s">
+      <c r="A117" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B117" t="s">
@@ -9883,7 +9883,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="102" t="s">
+      <c r="A118" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B118" t="s">
@@ -9918,7 +9918,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="102" t="s">
+      <c r="A119" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B119" t="s">
@@ -9953,7 +9953,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="102" t="s">
+      <c r="A120" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B120" t="s">
@@ -9988,7 +9988,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="102" t="s">
+      <c r="A121" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B121" t="s">
@@ -10023,7 +10023,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="102" t="s">
+      <c r="A122" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B122" t="s">
@@ -10058,7 +10058,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="102" t="s">
+      <c r="A123" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B123" t="s">
@@ -10093,7 +10093,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="102" t="s">
+      <c r="A124" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B124" t="s">
@@ -10128,7 +10128,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="102" t="s">
+      <c r="A125" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B125" t="s">
@@ -10163,7 +10163,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="102" t="s">
+      <c r="A126" s="97" t="s">
         <v>48</v>
       </c>
       <c r="B126" t="s">
@@ -10198,7 +10198,7 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="102" t="s">
+      <c r="A127" s="97" t="s">
         <v>48</v>
       </c>
       <c r="B127" t="s">
@@ -10233,7 +10233,7 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="102" t="s">
+      <c r="A128" s="97" t="s">
         <v>48</v>
       </c>
       <c r="B128" t="s">
@@ -10268,7 +10268,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="103" t="s">
+      <c r="A129" s="98" t="s">
         <v>48</v>
       </c>
       <c r="B129" t="s">
@@ -10316,8 +10316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A129"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10326,29 +10326,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="117" t="s">
+      <c r="A1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="120" t="s">
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="121"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="141"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="105" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="106" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="68" t="s">
@@ -10377,11 +10377,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="96" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>10</v>
@@ -10412,11 +10412,11 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>11</v>
@@ -10447,11 +10447,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>12</v>
@@ -10482,11 +10482,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
@@ -10517,11 +10517,11 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>10</v>
@@ -10552,11 +10552,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>11</v>
@@ -10587,11 +10587,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>12</v>
@@ -10622,11 +10622,11 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>13</v>
@@ -10657,11 +10657,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="97" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>10</v>
@@ -10692,11 +10692,11 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>11</v>
@@ -10727,11 +10727,11 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="97" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
@@ -10762,11 +10762,11 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="97" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>13</v>
@@ -10797,11 +10797,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>10</v>
@@ -10832,11 +10832,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>11</v>
@@ -10867,11 +10867,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>12</v>
@@ -10902,11 +10902,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>13</v>
@@ -10937,11 +10937,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>10</v>
@@ -10972,11 +10972,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>11</v>
@@ -11007,11 +11007,11 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>12</v>
@@ -11042,11 +11042,11 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>13</v>
@@ -11077,11 +11077,11 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>10</v>
@@ -11112,11 +11112,11 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>11</v>
@@ -11147,11 +11147,11 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>12</v>
@@ -11182,11 +11182,11 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>13</v>
@@ -11217,11 +11217,11 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>10</v>
@@ -11252,11 +11252,11 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>11</v>
@@ -11287,11 +11287,11 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="102" t="s">
+      <c r="A29" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>12</v>
@@ -11322,11 +11322,11 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="102" t="s">
+      <c r="A30" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>13</v>
@@ -11357,11 +11357,11 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>10</v>
@@ -11392,11 +11392,11 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>11</v>
@@ -11427,11 +11427,11 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>12</v>
@@ -11462,11 +11462,11 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>13</v>
@@ -11497,11 +11497,11 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>10</v>
@@ -11532,11 +11532,11 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>11</v>
@@ -11567,11 +11567,11 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>12</v>
@@ -11602,11 +11602,11 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="102" t="s">
+      <c r="A38" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>13</v>
@@ -11637,11 +11637,11 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>10</v>
@@ -11672,11 +11672,11 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>11</v>
@@ -11707,11 +11707,11 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="102" t="s">
+      <c r="A41" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>12</v>
@@ -11742,11 +11742,11 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>13</v>
@@ -11777,11 +11777,11 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="102" t="s">
+      <c r="A43" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>10</v>
@@ -11812,11 +11812,11 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="102" t="s">
+      <c r="A44" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>11</v>
@@ -11847,11 +11847,11 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>12</v>
@@ -11882,11 +11882,11 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="102" t="s">
+      <c r="A46" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>13</v>
@@ -11917,11 +11917,11 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="102" t="s">
+      <c r="A47" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>10</v>
@@ -11952,11 +11952,11 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="102" t="s">
+      <c r="A48" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>11</v>
@@ -11987,11 +11987,11 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="102" t="s">
+      <c r="A49" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>12</v>
@@ -12022,11 +12022,11 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="102" t="s">
+      <c r="A50" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>13</v>
@@ -12057,11 +12057,11 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="102" t="s">
+      <c r="A51" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>10</v>
@@ -12092,11 +12092,11 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="102" t="s">
+      <c r="A52" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>11</v>
@@ -12127,11 +12127,11 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="102" t="s">
+      <c r="A53" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>12</v>
@@ -12162,11 +12162,11 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="102" t="s">
+      <c r="A54" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>13</v>
@@ -12197,11 +12197,11 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="102" t="s">
+      <c r="A55" s="97" t="s">
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>10</v>
@@ -12232,11 +12232,11 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="102" t="s">
+      <c r="A56" s="97" t="s">
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>11</v>
@@ -12267,11 +12267,11 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="102" t="s">
+      <c r="A57" s="97" t="s">
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>12</v>
@@ -12302,11 +12302,11 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="102" t="s">
+      <c r="A58" s="97" t="s">
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>13</v>
@@ -12337,11 +12337,11 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="102" t="s">
+      <c r="A59" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>10</v>
@@ -12372,11 +12372,11 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="102" t="s">
+      <c r="A60" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>11</v>
@@ -12407,11 +12407,11 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="102" t="s">
+      <c r="A61" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>12</v>
@@ -12442,11 +12442,11 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="102" t="s">
+      <c r="A62" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>13</v>
@@ -12477,11 +12477,11 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="102" t="s">
+      <c r="A63" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>10</v>
@@ -12512,11 +12512,11 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="102" t="s">
+      <c r="A64" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>11</v>
@@ -12547,11 +12547,11 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="102" t="s">
+      <c r="A65" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>12</v>
@@ -12582,11 +12582,11 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="102" t="s">
+      <c r="A66" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>13</v>
@@ -12617,11 +12617,11 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="102" t="s">
+      <c r="A67" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>10</v>
@@ -12652,11 +12652,11 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="102" t="s">
+      <c r="A68" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>11</v>
@@ -12687,11 +12687,11 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="102" t="s">
+      <c r="A69" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>12</v>
@@ -12722,11 +12722,11 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="102" t="s">
+      <c r="A70" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>13</v>
@@ -12757,11 +12757,11 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="102" t="s">
+      <c r="A71" s="97" t="s">
         <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>10</v>
@@ -12792,11 +12792,11 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="102" t="s">
+      <c r="A72" s="97" t="s">
         <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>11</v>
@@ -12827,11 +12827,11 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="102" t="s">
+      <c r="A73" s="97" t="s">
         <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>12</v>
@@ -12862,11 +12862,11 @@
       </c>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="102" t="s">
+      <c r="A74" s="97" t="s">
         <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>10</v>
@@ -12897,11 +12897,11 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="102" t="s">
+      <c r="A75" s="97" t="s">
         <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>11</v>
@@ -12932,11 +12932,11 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="102" t="s">
+      <c r="A76" s="97" t="s">
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>12</v>
@@ -12967,11 +12967,11 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="102" t="s">
+      <c r="A77" s="97" t="s">
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>13</v>
@@ -13002,11 +13002,11 @@
       </c>
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="102" t="s">
+      <c r="A78" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>10</v>
@@ -13037,11 +13037,11 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="102" t="s">
+      <c r="A79" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>11</v>
@@ -13072,11 +13072,11 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="102" t="s">
+      <c r="A80" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>12</v>
@@ -13107,11 +13107,11 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="102" t="s">
+      <c r="A81" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B81" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>13</v>
@@ -13142,11 +13142,11 @@
       </c>
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="102" t="s">
+      <c r="A82" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>10</v>
@@ -13177,11 +13177,11 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="102" t="s">
+      <c r="A83" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>11</v>
@@ -13212,11 +13212,11 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="102" t="s">
+      <c r="A84" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>12</v>
@@ -13247,11 +13247,11 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="102" t="s">
+      <c r="A85" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>13</v>
@@ -13282,11 +13282,11 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="102" t="s">
+      <c r="A86" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>10</v>
@@ -13317,11 +13317,11 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="102" t="s">
+      <c r="A87" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>11</v>
@@ -13352,11 +13352,11 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="102" t="s">
+      <c r="A88" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>12</v>
@@ -13387,11 +13387,11 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="102" t="s">
+      <c r="A89" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>13</v>
@@ -13422,11 +13422,11 @@
       </c>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="102" t="s">
+      <c r="A90" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>10</v>
@@ -13457,11 +13457,11 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="102" t="s">
+      <c r="A91" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>11</v>
@@ -13492,11 +13492,11 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="102" t="s">
+      <c r="A92" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>12</v>
@@ -13527,11 +13527,11 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="102" t="s">
+      <c r="A93" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>13</v>
@@ -13562,11 +13562,11 @@
       </c>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="102" t="s">
+      <c r="A94" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>10</v>
@@ -13597,11 +13597,11 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="102" t="s">
+      <c r="A95" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>11</v>
@@ -13632,11 +13632,11 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="102" t="s">
+      <c r="A96" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>12</v>
@@ -13667,11 +13667,11 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="102" t="s">
+      <c r="A97" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>13</v>
@@ -13702,11 +13702,11 @@
       </c>
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="102" t="s">
+      <c r="A98" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>10</v>
@@ -13737,11 +13737,11 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="102" t="s">
+      <c r="A99" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>11</v>
@@ -13772,11 +13772,11 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="102" t="s">
+      <c r="A100" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>12</v>
@@ -13807,11 +13807,11 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="102" t="s">
+      <c r="A101" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>13</v>
@@ -13842,11 +13842,11 @@
       </c>
     </row>
     <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="102" t="s">
+      <c r="A102" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>10</v>
@@ -13877,11 +13877,11 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="102" t="s">
+      <c r="A103" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>11</v>
@@ -13912,11 +13912,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="102" t="s">
+      <c r="A104" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>12</v>
@@ -13947,11 +13947,11 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="102" t="s">
+      <c r="A105" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>13</v>
@@ -13982,11 +13982,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="102" t="s">
+      <c r="A106" s="97" t="s">
         <v>43</v>
       </c>
       <c r="B106" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>10</v>
@@ -14017,11 +14017,11 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="102" t="s">
+      <c r="A107" s="97" t="s">
         <v>43</v>
       </c>
       <c r="B107" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>11</v>
@@ -14052,11 +14052,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="102" t="s">
+      <c r="A108" s="97" t="s">
         <v>43</v>
       </c>
       <c r="B108" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>12</v>
@@ -14087,11 +14087,11 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="102" t="s">
+      <c r="A109" s="97" t="s">
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>13</v>
@@ -14122,11 +14122,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="102" t="s">
+      <c r="A110" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>10</v>
@@ -14157,11 +14157,11 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="102" t="s">
+      <c r="A111" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B111" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>11</v>
@@ -14192,11 +14192,11 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="102" t="s">
+      <c r="A112" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B112" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>12</v>
@@ -14227,11 +14227,11 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="102" t="s">
+      <c r="A113" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>13</v>
@@ -14262,11 +14262,11 @@
       </c>
     </row>
     <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="102" t="s">
+      <c r="A114" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B114" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>10</v>
@@ -14297,11 +14297,11 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="102" t="s">
+      <c r="A115" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B115" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>11</v>
@@ -14332,11 +14332,11 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="102" t="s">
+      <c r="A116" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>12</v>
@@ -14367,11 +14367,11 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="102" t="s">
+      <c r="A117" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>13</v>
@@ -14402,11 +14402,11 @@
       </c>
     </row>
     <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="102" t="s">
+      <c r="A118" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B118" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>10</v>
@@ -14437,11 +14437,11 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="102" t="s">
+      <c r="A119" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B119" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>11</v>
@@ -14472,11 +14472,11 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="102" t="s">
+      <c r="A120" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>12</v>
@@ -14507,11 +14507,11 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="102" t="s">
+      <c r="A121" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C121" s="11" t="s">
         <v>13</v>
@@ -14542,11 +14542,11 @@
       </c>
     </row>
     <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="102" t="s">
+      <c r="A122" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B122" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C122" s="11" t="s">
         <v>10</v>
@@ -14577,11 +14577,11 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="102" t="s">
+      <c r="A123" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>11</v>
@@ -14612,11 +14612,11 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="102" t="s">
+      <c r="A124" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>12</v>
@@ -14647,11 +14647,11 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="102" t="s">
+      <c r="A125" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>13</v>
@@ -14682,11 +14682,11 @@
       </c>
     </row>
     <row r="126" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="102" t="s">
+      <c r="A126" s="97" t="s">
         <v>48</v>
       </c>
       <c r="B126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>10</v>
@@ -14717,11 +14717,11 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="102" t="s">
+      <c r="A127" s="97" t="s">
         <v>48</v>
       </c>
       <c r="B127" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>11</v>
@@ -14752,11 +14752,11 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="102" t="s">
+      <c r="A128" s="97" t="s">
         <v>48</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C128" s="11" t="s">
         <v>12</v>
@@ -14787,11 +14787,11 @@
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="103" t="s">
+      <c r="A129" s="98" t="s">
         <v>48</v>
       </c>
       <c r="B129" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>13</v>
@@ -14835,8 +14835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A129"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14845,29 +14845,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="126" t="s">
+      <c r="A1" s="107"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="129" t="s">
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="130"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="146"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="109" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="110" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="56" t="s">
@@ -14896,11 +14896,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="96" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>10</v>
@@ -14931,11 +14931,11 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>11</v>
@@ -14966,11 +14966,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -15001,11 +15001,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>13</v>
@@ -15036,11 +15036,11 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>10</v>
@@ -15071,11 +15071,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>11</v>
@@ -15106,11 +15106,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>12</v>
@@ -15141,11 +15141,11 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="97" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>13</v>
@@ -15176,11 +15176,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="97" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>10</v>
@@ -15211,11 +15211,11 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>11</v>
@@ -15246,11 +15246,11 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="97" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>12</v>
@@ -15281,11 +15281,11 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="97" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>13</v>
@@ -15316,11 +15316,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>10</v>
@@ -15351,11 +15351,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>11</v>
@@ -15386,11 +15386,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -15421,11 +15421,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="97" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>13</v>
@@ -15456,11 +15456,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>10</v>
@@ -15491,11 +15491,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>11</v>
@@ -15526,11 +15526,11 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>12</v>
@@ -15561,11 +15561,11 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>13</v>
@@ -15596,11 +15596,11 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>10</v>
@@ -15631,11 +15631,11 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>11</v>
@@ -15666,11 +15666,11 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>12</v>
@@ -15701,11 +15701,11 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="97" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>13</v>
@@ -15736,11 +15736,11 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>10</v>
@@ -15771,11 +15771,11 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>11</v>
@@ -15806,11 +15806,11 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="102" t="s">
+      <c r="A29" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>12</v>
@@ -15841,11 +15841,11 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="102" t="s">
+      <c r="A30" s="97" t="s">
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>13</v>
@@ -15876,11 +15876,11 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>10</v>
@@ -15911,11 +15911,11 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>11</v>
@@ -15946,11 +15946,11 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>12</v>
@@ -15981,11 +15981,11 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>13</v>
@@ -16016,11 +16016,11 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>10</v>
@@ -16051,11 +16051,11 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>11</v>
@@ -16086,11 +16086,11 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>12</v>
@@ -16121,11 +16121,11 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="102" t="s">
+      <c r="A38" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>13</v>
@@ -16156,11 +16156,11 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>10</v>
@@ -16191,11 +16191,11 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>11</v>
@@ -16226,11 +16226,11 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="102" t="s">
+      <c r="A41" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>12</v>
@@ -16261,11 +16261,11 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="97" t="s">
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>13</v>
@@ -16296,11 +16296,11 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="102" t="s">
+      <c r="A43" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>10</v>
@@ -16331,11 +16331,11 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="102" t="s">
+      <c r="A44" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>11</v>
@@ -16366,11 +16366,11 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>12</v>
@@ -16401,11 +16401,11 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="102" t="s">
+      <c r="A46" s="97" t="s">
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>13</v>
@@ -16436,11 +16436,11 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="102" t="s">
+      <c r="A47" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>10</v>
@@ -16471,11 +16471,11 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="102" t="s">
+      <c r="A48" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>11</v>
@@ -16506,11 +16506,11 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="102" t="s">
+      <c r="A49" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>12</v>
@@ -16541,11 +16541,11 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="102" t="s">
+      <c r="A50" s="97" t="s">
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>13</v>
@@ -16576,11 +16576,11 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="102" t="s">
+      <c r="A51" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>10</v>
@@ -16611,11 +16611,11 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="102" t="s">
+      <c r="A52" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>11</v>
@@ -16646,11 +16646,11 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="102" t="s">
+      <c r="A53" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>12</v>
@@ -16681,11 +16681,11 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="102" t="s">
+      <c r="A54" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>13</v>
@@ -16716,11 +16716,11 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="102" t="s">
+      <c r="A55" s="97" t="s">
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>10</v>
@@ -16751,11 +16751,11 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="102" t="s">
+      <c r="A56" s="97" t="s">
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>11</v>
@@ -16786,11 +16786,11 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="102" t="s">
+      <c r="A57" s="97" t="s">
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>12</v>
@@ -16821,11 +16821,11 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="102" t="s">
+      <c r="A58" s="97" t="s">
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>13</v>
@@ -16856,11 +16856,11 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="102" t="s">
+      <c r="A59" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>10</v>
@@ -16891,11 +16891,11 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="102" t="s">
+      <c r="A60" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>11</v>
@@ -16926,11 +16926,11 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="102" t="s">
+      <c r="A61" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>12</v>
@@ -16961,11 +16961,11 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="102" t="s">
+      <c r="A62" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>13</v>
@@ -16996,11 +16996,11 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="102" t="s">
+      <c r="A63" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>10</v>
@@ -17031,11 +17031,11 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="102" t="s">
+      <c r="A64" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>11</v>
@@ -17066,11 +17066,11 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="102" t="s">
+      <c r="A65" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>12</v>
@@ -17101,11 +17101,11 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="102" t="s">
+      <c r="A66" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>13</v>
@@ -17136,11 +17136,11 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="102" t="s">
+      <c r="A67" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>10</v>
@@ -17171,11 +17171,11 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="102" t="s">
+      <c r="A68" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>11</v>
@@ -17206,11 +17206,11 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="102" t="s">
+      <c r="A69" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>12</v>
@@ -17241,11 +17241,11 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="102" t="s">
+      <c r="A70" s="97" t="s">
         <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>13</v>
@@ -17276,11 +17276,11 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="102" t="s">
+      <c r="A71" s="97" t="s">
         <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>10</v>
@@ -17311,11 +17311,11 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="102" t="s">
+      <c r="A72" s="97" t="s">
         <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>11</v>
@@ -17346,11 +17346,11 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="102" t="s">
+      <c r="A73" s="97" t="s">
         <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>12</v>
@@ -17381,11 +17381,11 @@
       </c>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="102" t="s">
+      <c r="A74" s="97" t="s">
         <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>10</v>
@@ -17416,11 +17416,11 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="102" t="s">
+      <c r="A75" s="97" t="s">
         <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>11</v>
@@ -17451,11 +17451,11 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="102" t="s">
+      <c r="A76" s="97" t="s">
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>12</v>
@@ -17486,11 +17486,11 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="102" t="s">
+      <c r="A77" s="97" t="s">
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>13</v>
@@ -17521,11 +17521,11 @@
       </c>
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="102" t="s">
+      <c r="A78" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>10</v>
@@ -17556,11 +17556,11 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="102" t="s">
+      <c r="A79" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>11</v>
@@ -17591,11 +17591,11 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="102" t="s">
+      <c r="A80" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>12</v>
@@ -17626,11 +17626,11 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="102" t="s">
+      <c r="A81" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>13</v>
@@ -17661,11 +17661,11 @@
       </c>
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="102" t="s">
+      <c r="A82" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>10</v>
@@ -17696,11 +17696,11 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="102" t="s">
+      <c r="A83" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>11</v>
@@ -17731,11 +17731,11 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="102" t="s">
+      <c r="A84" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>12</v>
@@ -17766,11 +17766,11 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="102" t="s">
+      <c r="A85" s="97" t="s">
         <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>13</v>
@@ -17801,11 +17801,11 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="102" t="s">
+      <c r="A86" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>10</v>
@@ -17836,11 +17836,11 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="102" t="s">
+      <c r="A87" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>11</v>
@@ -17871,11 +17871,11 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="102" t="s">
+      <c r="A88" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>12</v>
@@ -17906,11 +17906,11 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="102" t="s">
+      <c r="A89" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>13</v>
@@ -17941,11 +17941,11 @@
       </c>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="102" t="s">
+      <c r="A90" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>10</v>
@@ -17976,11 +17976,11 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="102" t="s">
+      <c r="A91" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>11</v>
@@ -18011,11 +18011,11 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="102" t="s">
+      <c r="A92" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>12</v>
@@ -18046,11 +18046,11 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="102" t="s">
+      <c r="A93" s="97" t="s">
         <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>13</v>
@@ -18081,11 +18081,11 @@
       </c>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="102" t="s">
+      <c r="A94" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>10</v>
@@ -18116,11 +18116,11 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="102" t="s">
+      <c r="A95" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>11</v>
@@ -18151,11 +18151,11 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="102" t="s">
+      <c r="A96" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>12</v>
@@ -18186,11 +18186,11 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="102" t="s">
+      <c r="A97" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>13</v>
@@ -18221,11 +18221,11 @@
       </c>
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="102" t="s">
+      <c r="A98" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>10</v>
@@ -18256,11 +18256,11 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="102" t="s">
+      <c r="A99" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>11</v>
@@ -18291,11 +18291,11 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="102" t="s">
+      <c r="A100" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>12</v>
@@ -18326,11 +18326,11 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="102" t="s">
+      <c r="A101" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C101" s="14" t="s">
         <v>13</v>
@@ -18361,11 +18361,11 @@
       </c>
     </row>
     <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="102" t="s">
+      <c r="A102" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B102" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>10</v>
@@ -18396,11 +18396,11 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="102" t="s">
+      <c r="A103" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>11</v>
@@ -18431,11 +18431,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="102" t="s">
+      <c r="A104" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>12</v>
@@ -18466,11 +18466,11 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="102" t="s">
+      <c r="A105" s="97" t="s">
         <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>13</v>
@@ -18501,11 +18501,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="102" t="s">
+      <c r="A106" s="97" t="s">
         <v>43</v>
       </c>
       <c r="B106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C106" s="14" t="s">
         <v>10</v>
@@ -18536,11 +18536,11 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="102" t="s">
+      <c r="A107" s="97" t="s">
         <v>43</v>
       </c>
       <c r="B107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>11</v>
@@ -18571,11 +18571,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="102" t="s">
+      <c r="A108" s="97" t="s">
         <v>43</v>
       </c>
       <c r="B108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C108" s="14" t="s">
         <v>12</v>
@@ -18606,11 +18606,11 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="102" t="s">
+      <c r="A109" s="97" t="s">
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C109" s="14" t="s">
         <v>13</v>
@@ -18641,11 +18641,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="102" t="s">
+      <c r="A110" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>10</v>
@@ -18676,11 +18676,11 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="102" t="s">
+      <c r="A111" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>11</v>
@@ -18711,11 +18711,11 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="102" t="s">
+      <c r="A112" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B112" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>12</v>
@@ -18746,11 +18746,11 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="102" t="s">
+      <c r="A113" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C113" s="14" t="s">
         <v>13</v>
@@ -18781,11 +18781,11 @@
       </c>
     </row>
     <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="102" t="s">
+      <c r="A114" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C114" s="14" t="s">
         <v>10</v>
@@ -18816,11 +18816,11 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="102" t="s">
+      <c r="A115" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>11</v>
@@ -18851,11 +18851,11 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="102" t="s">
+      <c r="A116" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C116" s="14" t="s">
         <v>12</v>
@@ -18886,11 +18886,11 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="102" t="s">
+      <c r="A117" s="97" t="s">
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C117" s="14" t="s">
         <v>13</v>
@@ -18921,11 +18921,11 @@
       </c>
     </row>
     <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="102" t="s">
+      <c r="A118" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B118" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C118" s="14" t="s">
         <v>10</v>
@@ -18956,11 +18956,11 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="102" t="s">
+      <c r="A119" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B119" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C119" s="14" t="s">
         <v>11</v>
@@ -18991,11 +18991,11 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="102" t="s">
+      <c r="A120" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>12</v>
@@ -19026,11 +19026,11 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="102" t="s">
+      <c r="A121" s="97" t="s">
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C121" s="14" t="s">
         <v>13</v>
@@ -19061,11 +19061,11 @@
       </c>
     </row>
     <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="102" t="s">
+      <c r="A122" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B122" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C122" s="14" t="s">
         <v>10</v>
@@ -19096,11 +19096,11 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="102" t="s">
+      <c r="A123" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C123" s="14" t="s">
         <v>11</v>
@@ -19131,11 +19131,11 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="102" t="s">
+      <c r="A124" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>12</v>
@@ -19166,11 +19166,11 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="102" t="s">
+      <c r="A125" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C125" s="14" t="s">
         <v>13</v>
@@ -19201,11 +19201,11 @@
       </c>
     </row>
     <row r="126" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="102" t="s">
+      <c r="A126" s="97" t="s">
         <v>48</v>
       </c>
       <c r="B126" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C126" s="14" t="s">
         <v>10</v>
@@ -19236,11 +19236,11 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="102" t="s">
+      <c r="A127" s="97" t="s">
         <v>48</v>
       </c>
       <c r="B127" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C127" s="14" t="s">
         <v>11</v>
@@ -19271,11 +19271,11 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="102" t="s">
+      <c r="A128" s="97" t="s">
         <v>48</v>
       </c>
       <c r="B128" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C128" s="14" t="s">
         <v>12</v>
@@ -19306,11 +19306,11 @@
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="103" t="s">
+      <c r="A129" s="98" t="s">
         <v>48</v>
       </c>
       <c r="B129" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>13</v>
@@ -19354,8 +19354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19364,29 +19364,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="135" t="s">
+      <c r="A1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="138" t="s">
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="139"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="151"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="113" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="114" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="44" t="s">
@@ -19415,11 +19415,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="115" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -19450,11 +19450,11 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="116" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -19485,11 +19485,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="116" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -19520,11 +19520,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="116" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
@@ -19555,11 +19555,11 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="116" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
@@ -19590,11 +19590,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="141" t="s">
+      <c r="A8" s="116" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>11</v>
@@ -19625,11 +19625,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="116" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
@@ -19660,11 +19660,11 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="116" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>13</v>
@@ -19695,11 +19695,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="116" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
@@ -19730,11 +19730,11 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="116" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>11</v>
@@ -19765,11 +19765,11 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="116" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -19800,11 +19800,11 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="116" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>13</v>
@@ -19835,11 +19835,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="116" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>10</v>
@@ -19870,11 +19870,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="141" t="s">
+      <c r="A16" s="116" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>11</v>
@@ -19905,11 +19905,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="141" t="s">
+      <c r="A17" s="116" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>12</v>
@@ -19940,11 +19940,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="141" t="s">
+      <c r="A18" s="116" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>13</v>
@@ -19975,11 +19975,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="141" t="s">
+      <c r="A19" s="116" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>10</v>
@@ -20010,11 +20010,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="141" t="s">
+      <c r="A20" s="116" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>11</v>
@@ -20045,11 +20045,11 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="141" t="s">
+      <c r="A21" s="116" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>12</v>
@@ -20080,11 +20080,11 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="141" t="s">
+      <c r="A22" s="116" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>13</v>
@@ -20115,11 +20115,11 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="141" t="s">
+      <c r="A23" s="116" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>10</v>
@@ -20150,11 +20150,11 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="141" t="s">
+      <c r="A24" s="116" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>11</v>
@@ -20185,11 +20185,11 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="141" t="s">
+      <c r="A25" s="116" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>12</v>
@@ -20220,11 +20220,11 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="116" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>13</v>
@@ -20255,11 +20255,11 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="116" t="s">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>10</v>
@@ -20290,11 +20290,11 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="141" t="s">
+      <c r="A28" s="116" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>11</v>
@@ -20325,11 +20325,11 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="141" t="s">
+      <c r="A29" s="116" t="s">
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>12</v>
@@ -20360,11 +20360,11 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="141" t="s">
+      <c r="A30" s="116" t="s">
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>13</v>
@@ -20395,11 +20395,11 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="141" t="s">
+      <c r="A31" s="116" t="s">
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>10</v>
@@ -20430,11 +20430,11 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="141" t="s">
+      <c r="A32" s="116" t="s">
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>11</v>
@@ -20465,11 +20465,11 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="141" t="s">
+      <c r="A33" s="116" t="s">
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>12</v>
@@ -20500,11 +20500,11 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="141" t="s">
+      <c r="A34" s="116" t="s">
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>13</v>
@@ -20535,11 +20535,11 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="141" t="s">
+      <c r="A35" s="116" t="s">
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>10</v>
@@ -20570,11 +20570,11 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="141" t="s">
+      <c r="A36" s="116" t="s">
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>11</v>
@@ -20605,11 +20605,11 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="141" t="s">
+      <c r="A37" s="116" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>12</v>
@@ -20640,11 +20640,11 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="141" t="s">
+      <c r="A38" s="116" t="s">
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>13</v>
@@ -20675,11 +20675,11 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="141" t="s">
+      <c r="A39" s="116" t="s">
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>10</v>
@@ -20710,11 +20710,11 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="141" t="s">
+      <c r="A40" s="116" t="s">
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>11</v>
@@ -20745,11 +20745,11 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="141" t="s">
+      <c r="A41" s="116" t="s">
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>12</v>
@@ -20780,11 +20780,11 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="141" t="s">
+      <c r="A42" s="116" t="s">
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>13</v>
@@ -20815,11 +20815,11 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="141" t="s">
+      <c r="A43" s="116" t="s">
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>10</v>
@@ -20850,11 +20850,11 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="116" t="s">
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>11</v>
@@ -20885,11 +20885,11 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="141" t="s">
+      <c r="A45" s="116" t="s">
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>12</v>
@@ -20920,11 +20920,11 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="141" t="s">
+      <c r="A46" s="116" t="s">
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>13</v>
@@ -20955,11 +20955,11 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="141" t="s">
+      <c r="A47" s="116" t="s">
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>10</v>
@@ -20990,11 +20990,11 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="141" t="s">
+      <c r="A48" s="116" t="s">
         <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>11</v>
@@ -21025,11 +21025,11 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="141" t="s">
+      <c r="A49" s="116" t="s">
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>12</v>
@@ -21060,11 +21060,11 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="141" t="s">
+      <c r="A50" s="116" t="s">
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>13</v>
@@ -21095,11 +21095,11 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="141" t="s">
+      <c r="A51" s="116" t="s">
         <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>10</v>
@@ -21130,11 +21130,11 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="141" t="s">
+      <c r="A52" s="116" t="s">
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>11</v>
@@ -21165,11 +21165,11 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="141" t="s">
+      <c r="A53" s="116" t="s">
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>12</v>
@@ -21200,11 +21200,11 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="141" t="s">
+      <c r="A54" s="116" t="s">
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>13</v>
@@ -21235,11 +21235,11 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="141" t="s">
+      <c r="A55" s="116" t="s">
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>10</v>
@@ -21270,11 +21270,11 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="141" t="s">
+      <c r="A56" s="116" t="s">
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>11</v>
@@ -21305,11 +21305,11 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="141" t="s">
+      <c r="A57" s="116" t="s">
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>12</v>
@@ -21340,11 +21340,11 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="141" t="s">
+      <c r="A58" s="116" t="s">
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>13</v>
@@ -21375,11 +21375,11 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="141" t="s">
+      <c r="A59" s="116" t="s">
         <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>10</v>
@@ -21410,11 +21410,11 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="141" t="s">
+      <c r="A60" s="116" t="s">
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>11</v>
@@ -21445,11 +21445,11 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="141" t="s">
+      <c r="A61" s="116" t="s">
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>12</v>
@@ -21480,11 +21480,11 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="141" t="s">
+      <c r="A62" s="116" t="s">
         <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>13</v>
@@ -21515,11 +21515,11 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="141" t="s">
+      <c r="A63" s="116" t="s">
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>10</v>
@@ -21550,11 +21550,11 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="141" t="s">
+      <c r="A64" s="116" t="s">
         <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>11</v>
@@ -21585,11 +21585,11 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="141" t="s">
+      <c r="A65" s="116" t="s">
         <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>12</v>
@@ -21620,11 +21620,11 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="141" t="s">
+      <c r="A66" s="116" t="s">
         <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>13</v>
@@ -21655,11 +21655,11 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="141" t="s">
+      <c r="A67" s="116" t="s">
         <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>10</v>
@@ -21690,11 +21690,11 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="141" t="s">
+      <c r="A68" s="116" t="s">
         <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>11</v>
@@ -21725,11 +21725,11 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="141" t="s">
+      <c r="A69" s="116" t="s">
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>12</v>
@@ -21760,11 +21760,11 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="141" t="s">
+      <c r="A70" s="116" t="s">
         <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>13</v>
@@ -21795,11 +21795,11 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="141" t="s">
+      <c r="A71" s="116" t="s">
         <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>10</v>
@@ -21830,11 +21830,11 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="141" t="s">
+      <c r="A72" s="116" t="s">
         <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>11</v>
@@ -21865,11 +21865,11 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="141" t="s">
+      <c r="A73" s="116" t="s">
         <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>12</v>
@@ -21900,11 +21900,11 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="141" t="s">
+      <c r="A74" s="116" t="s">
         <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>13</v>
@@ -21935,11 +21935,11 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="141" t="s">
+      <c r="A75" s="116" t="s">
         <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>10</v>
@@ -21970,11 +21970,11 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="141" t="s">
+      <c r="A76" s="116" t="s">
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>11</v>
@@ -22005,11 +22005,11 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="141" t="s">
+      <c r="A77" s="116" t="s">
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>12</v>
@@ -22040,11 +22040,11 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="141" t="s">
+      <c r="A78" s="116" t="s">
         <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>13</v>
@@ -22075,11 +22075,11 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="141" t="s">
+      <c r="A79" s="116" t="s">
         <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>10</v>
@@ -22110,11 +22110,11 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="141" t="s">
+      <c r="A80" s="116" t="s">
         <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>11</v>
@@ -22145,11 +22145,11 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="141" t="s">
+      <c r="A81" s="116" t="s">
         <v>36</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>12</v>
@@ -22180,11 +22180,11 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="141" t="s">
+      <c r="A82" s="116" t="s">
         <v>36</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>13</v>
@@ -22215,11 +22215,11 @@
       </c>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="141" t="s">
+      <c r="A83" s="116" t="s">
         <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>10</v>
@@ -22250,11 +22250,11 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="141" t="s">
+      <c r="A84" s="116" t="s">
         <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>11</v>
@@ -22285,11 +22285,11 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="141" t="s">
+      <c r="A85" s="116" t="s">
         <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>12</v>
@@ -22320,11 +22320,11 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="141" t="s">
+      <c r="A86" s="116" t="s">
         <v>37</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>13</v>
@@ -22355,11 +22355,11 @@
       </c>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="141" t="s">
+      <c r="A87" s="116" t="s">
         <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>10</v>
@@ -22390,11 +22390,11 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="141" t="s">
+      <c r="A88" s="116" t="s">
         <v>38</v>
       </c>
       <c r="B88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>11</v>
@@ -22425,11 +22425,11 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="141" t="s">
+      <c r="A89" s="116" t="s">
         <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>12</v>
@@ -22460,11 +22460,11 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="141" t="s">
+      <c r="A90" s="116" t="s">
         <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>13</v>
@@ -22495,11 +22495,11 @@
       </c>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="141" t="s">
+      <c r="A91" s="116" t="s">
         <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>10</v>
@@ -22530,11 +22530,11 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="141" t="s">
+      <c r="A92" s="116" t="s">
         <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>11</v>
@@ -22565,11 +22565,11 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="141" t="s">
+      <c r="A93" s="116" t="s">
         <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>12</v>
@@ -22600,11 +22600,11 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="141" t="s">
+      <c r="A94" s="116" t="s">
         <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>13</v>
@@ -22635,11 +22635,11 @@
       </c>
     </row>
     <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="141" t="s">
+      <c r="A95" s="116" t="s">
         <v>40</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>10</v>
@@ -22670,11 +22670,11 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="141" t="s">
+      <c r="A96" s="116" t="s">
         <v>40</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>11</v>
@@ -22705,11 +22705,11 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="141" t="s">
+      <c r="A97" s="116" t="s">
         <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>12</v>
@@ -22740,11 +22740,11 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="141" t="s">
+      <c r="A98" s="116" t="s">
         <v>40</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>13</v>
@@ -22775,11 +22775,11 @@
       </c>
     </row>
     <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="141" t="s">
+      <c r="A99" s="116" t="s">
         <v>41</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>10</v>
@@ -22810,11 +22810,11 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="141" t="s">
+      <c r="A100" s="116" t="s">
         <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>11</v>
@@ -22845,11 +22845,11 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="141" t="s">
+      <c r="A101" s="116" t="s">
         <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>12</v>
@@ -22880,11 +22880,11 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="141" t="s">
+      <c r="A102" s="116" t="s">
         <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>13</v>
@@ -22915,11 +22915,11 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="141" t="s">
+      <c r="A103" s="116" t="s">
         <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>10</v>
@@ -22950,11 +22950,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="141" t="s">
+      <c r="A104" s="116" t="s">
         <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>11</v>
@@ -22985,11 +22985,11 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="141" t="s">
+      <c r="A105" s="116" t="s">
         <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>12</v>
@@ -23020,11 +23020,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="141" t="s">
+      <c r="A106" s="116" t="s">
         <v>42</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>13</v>
@@ -23055,11 +23055,11 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="141" t="s">
+      <c r="A107" s="116" t="s">
         <v>43</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>10</v>
@@ -23090,11 +23090,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="141" t="s">
+      <c r="A108" s="116" t="s">
         <v>43</v>
       </c>
       <c r="B108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>11</v>
@@ -23125,11 +23125,11 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="141" t="s">
+      <c r="A109" s="116" t="s">
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>12</v>
@@ -23160,11 +23160,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="141" t="s">
+      <c r="A110" s="116" t="s">
         <v>43</v>
       </c>
       <c r="B110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>13</v>
@@ -23195,11 +23195,11 @@
       </c>
     </row>
     <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="141" t="s">
+      <c r="A111" s="116" t="s">
         <v>44</v>
       </c>
       <c r="B111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>10</v>
@@ -23230,11 +23230,11 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="141" t="s">
+      <c r="A112" s="116" t="s">
         <v>44</v>
       </c>
       <c r="B112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>11</v>
@@ -23265,11 +23265,11 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="141" t="s">
+      <c r="A113" s="116" t="s">
         <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>12</v>
@@ -23300,11 +23300,11 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="141" t="s">
+      <c r="A114" s="116" t="s">
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>13</v>
@@ -23335,11 +23335,11 @@
       </c>
     </row>
     <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="141" t="s">
+      <c r="A115" s="116" t="s">
         <v>45</v>
       </c>
       <c r="B115" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>10</v>
@@ -23370,11 +23370,11 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="141" t="s">
+      <c r="A116" s="116" t="s">
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>11</v>
@@ -23405,11 +23405,11 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="141" t="s">
+      <c r="A117" s="116" t="s">
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>12</v>
@@ -23440,11 +23440,11 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="141" t="s">
+      <c r="A118" s="116" t="s">
         <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>13</v>
@@ -23475,11 +23475,11 @@
       </c>
     </row>
     <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="141" t="s">
+      <c r="A119" s="116" t="s">
         <v>46</v>
       </c>
       <c r="B119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>10</v>
@@ -23510,11 +23510,11 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="141" t="s">
+      <c r="A120" s="116" t="s">
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>11</v>
@@ -23545,11 +23545,11 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="141" t="s">
+      <c r="A121" s="116" t="s">
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>12</v>
@@ -23580,11 +23580,11 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="141" t="s">
+      <c r="A122" s="116" t="s">
         <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>13</v>
@@ -23615,11 +23615,11 @@
       </c>
     </row>
     <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="141" t="s">
+      <c r="A123" s="116" t="s">
         <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>10</v>
@@ -23650,11 +23650,11 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="141" t="s">
+      <c r="A124" s="116" t="s">
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>11</v>
@@ -23685,11 +23685,11 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="141" t="s">
+      <c r="A125" s="116" t="s">
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>12</v>
@@ -23720,11 +23720,11 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="141" t="s">
+      <c r="A126" s="116" t="s">
         <v>47</v>
       </c>
       <c r="B126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>13</v>
@@ -23755,11 +23755,11 @@
       </c>
     </row>
     <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="142" t="s">
+      <c r="A127" s="117" t="s">
         <v>48</v>
       </c>
       <c r="B127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>10</v>
@@ -23790,11 +23790,11 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="141" t="s">
+      <c r="A128" s="116" t="s">
         <v>48</v>
       </c>
       <c r="B128" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>11</v>
@@ -23825,11 +23825,11 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="141" t="s">
+      <c r="A129" s="116" t="s">
         <v>48</v>
       </c>
       <c r="B129" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>12</v>
@@ -23860,11 +23860,11 @@
       </c>
     </row>
     <row r="130" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="143" t="s">
+      <c r="A130" s="118" t="s">
         <v>48</v>
       </c>
       <c r="B130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>13</v>
@@ -23908,8 +23908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B130"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23918,29 +23918,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="148" t="s">
+      <c r="A1" s="119"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="151" t="s">
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="152"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="156"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="121" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="122" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="32" t="s">
@@ -23969,11 +23969,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="123" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>10</v>
@@ -24004,11 +24004,11 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="124" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>11</v>
@@ -24039,11 +24039,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="124" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>12</v>
@@ -24074,11 +24074,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="124" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>13</v>
@@ -24109,11 +24109,11 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="124" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>10</v>
@@ -24144,11 +24144,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="124" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>11</v>
@@ -24179,11 +24179,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="124" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>12</v>
@@ -24214,11 +24214,11 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="124" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>13</v>
@@ -24249,11 +24249,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="124" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>10</v>
@@ -24284,11 +24284,11 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="124" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>11</v>
@@ -24319,11 +24319,11 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="124" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>12</v>
@@ -24354,11 +24354,11 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="124" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>13</v>
@@ -24389,11 +24389,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="124" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>10</v>
@@ -24424,11 +24424,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="124" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>11</v>
@@ -24459,11 +24459,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="154" t="s">
+      <c r="A17" s="124" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>12</v>
@@ -24494,11 +24494,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="124" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>13</v>
@@ -24529,11 +24529,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="154" t="s">
+      <c r="A19" s="124" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>10</v>
@@ -24564,11 +24564,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="154" t="s">
+      <c r="A20" s="124" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>11</v>
@@ -24599,11 +24599,11 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="154" t="s">
+      <c r="A21" s="124" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>12</v>
@@ -24634,11 +24634,11 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="154" t="s">
+      <c r="A22" s="124" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>13</v>
@@ -24669,11 +24669,11 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="154" t="s">
+      <c r="A23" s="124" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>10</v>
@@ -24704,11 +24704,11 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="154" t="s">
+      <c r="A24" s="124" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>11</v>
@@ -24739,11 +24739,11 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="154" t="s">
+      <c r="A25" s="124" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>12</v>
@@ -24774,11 +24774,11 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="154" t="s">
+      <c r="A26" s="124" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>13</v>
@@ -24809,11 +24809,11 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="154" t="s">
+      <c r="A27" s="124" t="s">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>10</v>
@@ -24844,11 +24844,11 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="154" t="s">
+      <c r="A28" s="124" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>11</v>
@@ -24879,11 +24879,11 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="154" t="s">
+      <c r="A29" s="124" t="s">
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>12</v>
@@ -24914,11 +24914,11 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="154" t="s">
+      <c r="A30" s="124" t="s">
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>13</v>
@@ -24949,11 +24949,11 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="154" t="s">
+      <c r="A31" s="124" t="s">
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>10</v>
@@ -24984,11 +24984,11 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="154" t="s">
+      <c r="A32" s="124" t="s">
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>11</v>
@@ -25019,11 +25019,11 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="154" t="s">
+      <c r="A33" s="124" t="s">
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>12</v>
@@ -25054,11 +25054,11 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="154" t="s">
+      <c r="A34" s="124" t="s">
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>13</v>
@@ -25089,11 +25089,11 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="154" t="s">
+      <c r="A35" s="124" t="s">
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>10</v>
@@ -25124,11 +25124,11 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="154" t="s">
+      <c r="A36" s="124" t="s">
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>11</v>
@@ -25159,11 +25159,11 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="154" t="s">
+      <c r="A37" s="124" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>12</v>
@@ -25194,11 +25194,11 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="154" t="s">
+      <c r="A38" s="124" t="s">
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>13</v>
@@ -25229,11 +25229,11 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="154" t="s">
+      <c r="A39" s="124" t="s">
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>10</v>
@@ -25264,11 +25264,11 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="154" t="s">
+      <c r="A40" s="124" t="s">
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>11</v>
@@ -25299,11 +25299,11 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="154" t="s">
+      <c r="A41" s="124" t="s">
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>12</v>
@@ -25334,11 +25334,11 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="154" t="s">
+      <c r="A42" s="124" t="s">
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>13</v>
@@ -25369,11 +25369,11 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="154" t="s">
+      <c r="A43" s="124" t="s">
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>10</v>
@@ -25404,11 +25404,11 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="154" t="s">
+      <c r="A44" s="124" t="s">
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>11</v>
@@ -25439,11 +25439,11 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="154" t="s">
+      <c r="A45" s="124" t="s">
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>12</v>
@@ -25474,11 +25474,11 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="154" t="s">
+      <c r="A46" s="124" t="s">
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>13</v>
@@ -25509,11 +25509,11 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="154" t="s">
+      <c r="A47" s="124" t="s">
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>10</v>
@@ -25544,11 +25544,11 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="154" t="s">
+      <c r="A48" s="124" t="s">
         <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>11</v>
@@ -25579,11 +25579,11 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="154" t="s">
+      <c r="A49" s="124" t="s">
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>12</v>
@@ -25614,11 +25614,11 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="154" t="s">
+      <c r="A50" s="124" t="s">
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>13</v>
@@ -25649,11 +25649,11 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="154" t="s">
+      <c r="A51" s="124" t="s">
         <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>10</v>
@@ -25684,11 +25684,11 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="154" t="s">
+      <c r="A52" s="124" t="s">
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>11</v>
@@ -25719,11 +25719,11 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="154" t="s">
+      <c r="A53" s="124" t="s">
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>12</v>
@@ -25754,11 +25754,11 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="154" t="s">
+      <c r="A54" s="124" t="s">
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>13</v>
@@ -25789,11 +25789,11 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="154" t="s">
+      <c r="A55" s="124" t="s">
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>10</v>
@@ -25824,11 +25824,11 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="154" t="s">
+      <c r="A56" s="124" t="s">
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>11</v>
@@ -25859,11 +25859,11 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="154" t="s">
+      <c r="A57" s="124" t="s">
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>12</v>
@@ -25894,11 +25894,11 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="154" t="s">
+      <c r="A58" s="124" t="s">
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>13</v>
@@ -25929,11 +25929,11 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="154" t="s">
+      <c r="A59" s="124" t="s">
         <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>10</v>
@@ -25964,11 +25964,11 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="154" t="s">
+      <c r="A60" s="124" t="s">
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>11</v>
@@ -25999,11 +25999,11 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="154" t="s">
+      <c r="A61" s="124" t="s">
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>12</v>
@@ -26034,11 +26034,11 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="154" t="s">
+      <c r="A62" s="124" t="s">
         <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>13</v>
@@ -26069,11 +26069,11 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="154" t="s">
+      <c r="A63" s="124" t="s">
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>10</v>
@@ -26104,11 +26104,11 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="154" t="s">
+      <c r="A64" s="124" t="s">
         <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>11</v>
@@ -26139,11 +26139,11 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="154" t="s">
+      <c r="A65" s="124" t="s">
         <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C65" s="17" t="s">
         <v>12</v>
@@ -26174,11 +26174,11 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="154" t="s">
+      <c r="A66" s="124" t="s">
         <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>13</v>
@@ -26209,11 +26209,11 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="154" t="s">
+      <c r="A67" s="124" t="s">
         <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>10</v>
@@ -26244,11 +26244,11 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="154" t="s">
+      <c r="A68" s="124" t="s">
         <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>11</v>
@@ -26279,11 +26279,11 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="154" t="s">
+      <c r="A69" s="124" t="s">
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>12</v>
@@ -26314,11 +26314,11 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="154" t="s">
+      <c r="A70" s="124" t="s">
         <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>13</v>
@@ -26349,11 +26349,11 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="154" t="s">
+      <c r="A71" s="124" t="s">
         <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>10</v>
@@ -26384,11 +26384,11 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="154" t="s">
+      <c r="A72" s="124" t="s">
         <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>11</v>
@@ -26419,11 +26419,11 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="154" t="s">
+      <c r="A73" s="124" t="s">
         <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>12</v>
@@ -26454,11 +26454,11 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="154" t="s">
+      <c r="A74" s="124" t="s">
         <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>13</v>
@@ -26489,11 +26489,11 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="154" t="s">
+      <c r="A75" s="124" t="s">
         <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>10</v>
@@ -26524,11 +26524,11 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="154" t="s">
+      <c r="A76" s="124" t="s">
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>11</v>
@@ -26559,11 +26559,11 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="154" t="s">
+      <c r="A77" s="124" t="s">
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>12</v>
@@ -26594,11 +26594,11 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="154" t="s">
+      <c r="A78" s="124" t="s">
         <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>13</v>
@@ -26629,11 +26629,11 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="154" t="s">
+      <c r="A79" s="124" t="s">
         <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>10</v>
@@ -26664,11 +26664,11 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="154" t="s">
+      <c r="A80" s="124" t="s">
         <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>11</v>
@@ -26699,11 +26699,11 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="154" t="s">
+      <c r="A81" s="124" t="s">
         <v>36</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C81" s="17" t="s">
         <v>12</v>
@@ -26734,11 +26734,11 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="154" t="s">
+      <c r="A82" s="124" t="s">
         <v>36</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>13</v>
@@ -26769,11 +26769,11 @@
       </c>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="154" t="s">
+      <c r="A83" s="124" t="s">
         <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>10</v>
@@ -26804,11 +26804,11 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="154" t="s">
+      <c r="A84" s="124" t="s">
         <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>11</v>
@@ -26839,11 +26839,11 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="154" t="s">
+      <c r="A85" s="124" t="s">
         <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>12</v>
@@ -26874,11 +26874,11 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="154" t="s">
+      <c r="A86" s="124" t="s">
         <v>37</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>13</v>
@@ -26909,11 +26909,11 @@
       </c>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="154" t="s">
+      <c r="A87" s="124" t="s">
         <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>10</v>
@@ -26944,11 +26944,11 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="154" t="s">
+      <c r="A88" s="124" t="s">
         <v>38</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>11</v>
@@ -26979,11 +26979,11 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="154" t="s">
+      <c r="A89" s="124" t="s">
         <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>12</v>
@@ -27014,11 +27014,11 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="154" t="s">
+      <c r="A90" s="124" t="s">
         <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C90" s="17" t="s">
         <v>13</v>
@@ -27049,11 +27049,11 @@
       </c>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="154" t="s">
+      <c r="A91" s="124" t="s">
         <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>10</v>
@@ -27084,11 +27084,11 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="154" t="s">
+      <c r="A92" s="124" t="s">
         <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C92" s="17" t="s">
         <v>11</v>
@@ -27119,11 +27119,11 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="154" t="s">
+      <c r="A93" s="124" t="s">
         <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C93" s="17" t="s">
         <v>12</v>
@@ -27154,11 +27154,11 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="154" t="s">
+      <c r="A94" s="124" t="s">
         <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C94" s="17" t="s">
         <v>13</v>
@@ -27189,11 +27189,11 @@
       </c>
     </row>
     <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="154" t="s">
+      <c r="A95" s="124" t="s">
         <v>40</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C95" s="17" t="s">
         <v>10</v>
@@ -27224,11 +27224,11 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="154" t="s">
+      <c r="A96" s="124" t="s">
         <v>40</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C96" s="17" t="s">
         <v>11</v>
@@ -27259,11 +27259,11 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="154" t="s">
+      <c r="A97" s="124" t="s">
         <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C97" s="17" t="s">
         <v>12</v>
@@ -27294,11 +27294,11 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="154" t="s">
+      <c r="A98" s="124" t="s">
         <v>40</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C98" s="17" t="s">
         <v>13</v>
@@ -27329,11 +27329,11 @@
       </c>
     </row>
     <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="154" t="s">
+      <c r="A99" s="124" t="s">
         <v>41</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>10</v>
@@ -27364,11 +27364,11 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="154" t="s">
+      <c r="A100" s="124" t="s">
         <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>11</v>
@@ -27399,11 +27399,11 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="154" t="s">
+      <c r="A101" s="124" t="s">
         <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>12</v>
@@ -27434,11 +27434,11 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="154" t="s">
+      <c r="A102" s="124" t="s">
         <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C102" s="17" t="s">
         <v>13</v>
@@ -27469,11 +27469,11 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="154" t="s">
+      <c r="A103" s="124" t="s">
         <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C103" s="17" t="s">
         <v>10</v>
@@ -27504,11 +27504,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="154" t="s">
+      <c r="A104" s="124" t="s">
         <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C104" s="17" t="s">
         <v>11</v>
@@ -27539,11 +27539,11 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="154" t="s">
+      <c r="A105" s="124" t="s">
         <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C105" s="17" t="s">
         <v>12</v>
@@ -27574,11 +27574,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="154" t="s">
+      <c r="A106" s="124" t="s">
         <v>42</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C106" s="17" t="s">
         <v>13</v>
@@ -27609,11 +27609,11 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="154" t="s">
+      <c r="A107" s="124" t="s">
         <v>43</v>
       </c>
       <c r="B107" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C107" s="17" t="s">
         <v>10</v>
@@ -27644,11 +27644,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="154" t="s">
+      <c r="A108" s="124" t="s">
         <v>43</v>
       </c>
       <c r="B108" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C108" s="17" t="s">
         <v>11</v>
@@ -27679,11 +27679,11 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="154" t="s">
+      <c r="A109" s="124" t="s">
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C109" s="17" t="s">
         <v>12</v>
@@ -27714,11 +27714,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="154" t="s">
+      <c r="A110" s="124" t="s">
         <v>43</v>
       </c>
       <c r="B110" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C110" s="17" t="s">
         <v>13</v>
@@ -27749,11 +27749,11 @@
       </c>
     </row>
     <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="154" t="s">
+      <c r="A111" s="124" t="s">
         <v>44</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C111" s="17" t="s">
         <v>10</v>
@@ -27784,11 +27784,11 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="154" t="s">
+      <c r="A112" s="124" t="s">
         <v>44</v>
       </c>
       <c r="B112" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C112" s="17" t="s">
         <v>11</v>
@@ -27819,11 +27819,11 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="154" t="s">
+      <c r="A113" s="124" t="s">
         <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C113" s="17" t="s">
         <v>12</v>
@@ -27854,11 +27854,11 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="154" t="s">
+      <c r="A114" s="124" t="s">
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C114" s="17" t="s">
         <v>13</v>
@@ -27889,11 +27889,11 @@
       </c>
     </row>
     <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="154" t="s">
+      <c r="A115" s="124" t="s">
         <v>45</v>
       </c>
       <c r="B115" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>10</v>
@@ -27924,11 +27924,11 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="154" t="s">
+      <c r="A116" s="124" t="s">
         <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C116" s="17" t="s">
         <v>11</v>
@@ -27959,11 +27959,11 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="154" t="s">
+      <c r="A117" s="124" t="s">
         <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C117" s="17" t="s">
         <v>12</v>
@@ -27994,11 +27994,11 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="154" t="s">
+      <c r="A118" s="124" t="s">
         <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C118" s="17" t="s">
         <v>13</v>
@@ -28029,11 +28029,11 @@
       </c>
     </row>
     <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="154" t="s">
+      <c r="A119" s="124" t="s">
         <v>46</v>
       </c>
       <c r="B119" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C119" s="17" t="s">
         <v>10</v>
@@ -28064,11 +28064,11 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="154" t="s">
+      <c r="A120" s="124" t="s">
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C120" s="17" t="s">
         <v>11</v>
@@ -28099,11 +28099,11 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="154" t="s">
+      <c r="A121" s="124" t="s">
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C121" s="17" t="s">
         <v>12</v>
@@ -28134,11 +28134,11 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="154" t="s">
+      <c r="A122" s="124" t="s">
         <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C122" s="17" t="s">
         <v>13</v>
@@ -28169,11 +28169,11 @@
       </c>
     </row>
     <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="154" t="s">
+      <c r="A123" s="124" t="s">
         <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C123" s="17" t="s">
         <v>10</v>
@@ -28204,11 +28204,11 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="154" t="s">
+      <c r="A124" s="124" t="s">
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C124" s="17" t="s">
         <v>11</v>
@@ -28239,11 +28239,11 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="154" t="s">
+      <c r="A125" s="124" t="s">
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C125" s="17" t="s">
         <v>12</v>
@@ -28274,11 +28274,11 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="154" t="s">
+      <c r="A126" s="124" t="s">
         <v>47</v>
       </c>
       <c r="B126" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C126" s="17" t="s">
         <v>13</v>
@@ -28309,11 +28309,11 @@
       </c>
     </row>
     <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="155" t="s">
+      <c r="A127" s="125" t="s">
         <v>48</v>
       </c>
       <c r="B127" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>10</v>
@@ -28344,11 +28344,11 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="154" t="s">
+      <c r="A128" s="124" t="s">
         <v>48</v>
       </c>
       <c r="B128" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C128" s="17" t="s">
         <v>11</v>
@@ -28379,11 +28379,11 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="154" t="s">
+      <c r="A129" s="124" t="s">
         <v>48</v>
       </c>
       <c r="B129" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C129" s="17" t="s">
         <v>12</v>
@@ -28414,11 +28414,11 @@
       </c>
     </row>
     <row r="130" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="156" t="s">
+      <c r="A130" s="126" t="s">
         <v>48</v>
       </c>
       <c r="B130" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C130" s="18" t="s">
         <v>13</v>
